--- a/data/trans_orig/Q25_A_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q25_A_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{892F3E0D-BC91-4E28-A0B4-92E9735B593B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{33D74107-4166-4E33-9F29-64AA088791F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{448DB280-878F-42F9-9981-E8E3DB5AEDA9}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{58131893-FC24-4B3D-879F-EE1951960C4A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -2097,7 +2097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4749A5A3-8ABC-4C52-A9E1-82FD315A0029}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4BE7FA9-98BC-4975-8157-47B56747AA21}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3256,7 +3256,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13CE1BA5-65E8-4906-9F83-0A62263DD249}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41244CB7-1BDE-4B8A-967F-89C9E5522A79}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4415,7 +4415,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C12CCE38-E4CA-4A36-8C7F-EA427A48A132}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE1D498-0809-4F94-823F-7320DDF7A766}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5574,7 +5574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC83D92D-B8AC-40F5-A242-655268DB9574}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DDBB5B6-EC66-45B7-A5B3-F4174100111C}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/Q25_A_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q25_A_R-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33D74107-4166-4E33-9F29-64AA088791F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{121B723D-769F-410E-B383-2EF46D9052F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{58131893-FC24-4B3D-879F-EE1951960C4A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AE1A0505-B979-4F8B-9126-CD2DEF6CA693}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="558">
   <si>
     <t>Población en función del tiempo en años desde que dejó de fumar en 2007 (Tasa respuesta: 13,07%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>14,95%</t>
   </si>
   <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
   </si>
   <si>
     <t>6,44%</t>
   </si>
   <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
   </si>
   <si>
     <t>13,71%</t>
   </si>
   <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
   </si>
   <si>
     <t>Cuartil III</t>
@@ -107,1555 +107,1582 @@
     <t>34,82%</t>
   </si>
   <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>Cuartil II</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
     <t>29,58%</t>
   </si>
   <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>Cuartil II</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>Cuartil I</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población en función del tiempo en años desde que dejó de fumar en 2012 (Tasa respuesta: 17,27%)</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
   </si>
   <si>
     <t>40,57%</t>
   </si>
   <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>Cuartil I</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>Población en función del tiempo en años desde que dejó de fumar en 2016 (Tasa respuesta: 15,74%)</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>Población en función del tiempo en años desde que dejó de fumar en 2023 (Tasa respuesta: 14,51%)</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
   </si>
   <si>
     <t>21,34%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población en función del tiempo en años desde que dejó de fumar en 2012 (Tasa respuesta: 17,27%)</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
   </si>
   <si>
     <t>22,57%</t>
   </si>
   <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
   </si>
   <si>
     <t>23,0%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>Población en función del tiempo en años desde que dejó de fumar en 2015 (Tasa respuesta: 15,74%)</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>Población en función del tiempo en años desde que dejó de fumar en 2023 (Tasa respuesta: 14,51%)</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
   </si>
   <si>
     <t>19,49%</t>
@@ -2097,7 +2124,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4BE7FA9-98BC-4975-8157-47B56747AA21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F39C1736-0FC0-4215-96B5-6583C7AEA7CB}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2377,10 +2404,10 @@
         <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -2389,13 +2416,13 @@
         <v>13780</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>58</v>
@@ -2404,13 +2431,13 @@
         <v>59125</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2425,13 +2452,13 @@
         <v>296628</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>49</v>
@@ -2440,13 +2467,13 @@
         <v>50558</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>353</v>
@@ -2455,18 +2482,18 @@
         <v>347186</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -2478,13 +2505,13 @@
         <v>15222</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -2493,13 +2520,13 @@
         <v>3054</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>17</v>
@@ -2508,13 +2535,13 @@
         <v>18276</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2529,13 +2556,13 @@
         <v>47011</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -2544,13 +2571,13 @@
         <v>17710</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>62</v>
@@ -2559,13 +2586,13 @@
         <v>64721</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2580,13 +2607,13 @@
         <v>97139</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H11" s="7">
         <v>60</v>
@@ -2595,13 +2622,13 @@
         <v>63269</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M11" s="7">
         <v>157</v>
@@ -2610,13 +2637,13 @@
         <v>160408</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2631,13 +2658,13 @@
         <v>73966</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>64</v>
@@ -2646,13 +2673,13 @@
         <v>63991</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M12" s="7">
         <v>136</v>
@@ -2661,13 +2688,13 @@
         <v>137957</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2682,13 +2709,13 @@
         <v>233338</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>144</v>
@@ -2697,13 +2724,13 @@
         <v>148024</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>372</v>
@@ -2712,18 +2739,18 @@
         <v>381362</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2735,13 +2762,13 @@
         <v>6558</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -2750,13 +2777,13 @@
         <v>2095</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -2765,13 +2792,13 @@
         <v>8653</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2786,13 +2813,13 @@
         <v>22620</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H15" s="7">
         <v>8</v>
@@ -2801,13 +2828,13 @@
         <v>8057</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M15" s="7">
         <v>28</v>
@@ -2816,13 +2843,13 @@
         <v>30677</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2837,13 +2864,13 @@
         <v>27509</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -2852,13 +2879,13 @@
         <v>23422</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>50</v>
@@ -2867,13 +2894,13 @@
         <v>50931</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2888,13 +2915,13 @@
         <v>26290</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -2903,13 +2930,13 @@
         <v>16320</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>41</v>
@@ -2918,13 +2945,13 @@
         <v>42611</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2939,13 +2966,13 @@
         <v>82978</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
         <v>48</v>
@@ -2954,13 +2981,13 @@
         <v>49893</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
         <v>126</v>
@@ -2969,13 +2996,13 @@
         <v>132872</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2992,13 +3019,13 @@
         <v>66129</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -3007,13 +3034,13 @@
         <v>8405</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="M19" s="7">
         <v>73</v>
@@ -3022,13 +3049,13 @@
         <v>74535</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3043,13 +3070,13 @@
         <v>172920</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H20" s="7">
         <v>38</v>
@@ -3058,13 +3085,13 @@
         <v>40061</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>134</v>
+        <v>49</v>
       </c>
       <c r="M20" s="7">
         <v>210</v>
@@ -3073,13 +3100,13 @@
         <v>212981</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3094,13 +3121,13 @@
         <v>228293</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H21" s="7">
         <v>101</v>
@@ -3109,13 +3136,13 @@
         <v>105918</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M21" s="7">
         <v>333</v>
@@ -3124,13 +3151,13 @@
         <v>334211</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>72</v>
+        <v>147</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3145,13 +3172,13 @@
         <v>145602</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>94</v>
@@ -3160,13 +3187,13 @@
         <v>94091</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>235</v>
@@ -3175,13 +3202,13 @@
         <v>239692</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3196,13 +3223,13 @@
         <v>612944</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
         <v>241</v>
@@ -3211,13 +3238,13 @@
         <v>248475</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
         <v>851</v>
@@ -3226,18 +3253,18 @@
         <v>861419</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -3256,7 +3283,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41244CB7-1BDE-4B8A-967F-89C9E5522A79}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A117AD7-ADE0-46B6-8C9E-41E12D2961A6}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3273,7 +3300,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3380,13 +3407,13 @@
         <v>94169</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -3395,13 +3422,13 @@
         <v>4213</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M4" s="7">
         <v>85</v>
@@ -3410,13 +3437,13 @@
         <v>98382</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3431,13 +3458,13 @@
         <v>120079</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H5" s="7">
         <v>12</v>
@@ -3446,13 +3473,13 @@
         <v>12200</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M5" s="7">
         <v>123</v>
@@ -3461,13 +3488,13 @@
         <v>132279</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3482,13 +3509,13 @@
         <v>107899</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="H6" s="7">
         <v>24</v>
@@ -3497,13 +3524,13 @@
         <v>25626</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>35</v>
+        <v>182</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="M6" s="7">
         <v>127</v>
@@ -3512,13 +3539,13 @@
         <v>133525</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3533,13 +3560,13 @@
         <v>62234</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="H7" s="7">
         <v>26</v>
@@ -3548,13 +3575,13 @@
         <v>28030</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M7" s="7">
         <v>86</v>
@@ -3563,13 +3590,13 @@
         <v>90264</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3584,13 +3611,13 @@
         <v>384381</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>66</v>
@@ -3599,13 +3626,13 @@
         <v>70069</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>421</v>
@@ -3614,18 +3641,18 @@
         <v>454450</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -3637,13 +3664,13 @@
         <v>35459</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="H9" s="7">
         <v>14</v>
@@ -3652,13 +3679,13 @@
         <v>15241</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="M9" s="7">
         <v>45</v>
@@ -3667,13 +3694,13 @@
         <v>50701</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3688,13 +3715,13 @@
         <v>64980</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="H10" s="7">
         <v>39</v>
@@ -3703,13 +3730,13 @@
         <v>45143</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="M10" s="7">
         <v>97</v>
@@ -3718,13 +3745,13 @@
         <v>110123</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3739,13 +3766,13 @@
         <v>118882</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="H11" s="7">
         <v>90</v>
@@ -3754,13 +3781,13 @@
         <v>95650</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="M11" s="7">
         <v>202</v>
@@ -3769,13 +3796,13 @@
         <v>214532</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>215</v>
+        <v>104</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>26</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3790,13 +3817,13 @@
         <v>128914</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="H12" s="7">
         <v>80</v>
@@ -3805,13 +3832,13 @@
         <v>87127</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="M12" s="7">
         <v>203</v>
@@ -3820,13 +3847,13 @@
         <v>216041</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3841,13 +3868,13 @@
         <v>348236</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>223</v>
@@ -3856,13 +3883,13 @@
         <v>243161</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>547</v>
@@ -3871,18 +3898,18 @@
         <v>591398</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -3894,13 +3921,13 @@
         <v>14820</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -3909,13 +3936,13 @@
         <v>3170</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="M14" s="7">
         <v>16</v>
@@ -3924,13 +3951,13 @@
         <v>17990</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3945,13 +3972,13 @@
         <v>19204</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="H15" s="7">
         <v>12</v>
@@ -3960,13 +3987,13 @@
         <v>15492</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="M15" s="7">
         <v>29</v>
@@ -3975,13 +4002,13 @@
         <v>34697</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3996,13 +4023,13 @@
         <v>30148</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -4011,13 +4038,13 @@
         <v>31977</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="M16" s="7">
         <v>57</v>
@@ -4026,13 +4053,13 @@
         <v>62125</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4047,13 +4074,13 @@
         <v>31055</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
@@ -4062,13 +4089,13 @@
         <v>27246</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>255</v>
+        <v>73</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>256</v>
+        <v>133</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="M17" s="7">
         <v>54</v>
@@ -4077,13 +4104,13 @@
         <v>58302</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4098,13 +4125,13 @@
         <v>95227</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
         <v>69</v>
@@ -4113,13 +4140,13 @@
         <v>77886</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
         <v>156</v>
@@ -4128,13 +4155,13 @@
         <v>173113</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4151,13 +4178,13 @@
         <v>144448</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H19" s="7">
         <v>21</v>
@@ -4166,13 +4193,13 @@
         <v>22625</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>122</v>
+        <v>269</v>
       </c>
       <c r="M19" s="7">
         <v>146</v>
@@ -4184,10 +4211,10 @@
         <v>17</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4202,13 +4229,13 @@
         <v>204263</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>163</v>
+        <v>273</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H20" s="7">
         <v>63</v>
@@ -4217,13 +4244,13 @@
         <v>72836</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="M20" s="7">
         <v>249</v>
@@ -4232,13 +4259,13 @@
         <v>277099</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4253,13 +4280,13 @@
         <v>256929</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="H21" s="7">
         <v>142</v>
@@ -4268,13 +4295,13 @@
         <v>153253</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>21</v>
+        <v>284</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="M21" s="7">
         <v>386</v>
@@ -4283,13 +4310,13 @@
         <v>410182</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4304,13 +4331,13 @@
         <v>222203</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="H22" s="7">
         <v>132</v>
@@ -4319,13 +4346,13 @@
         <v>142404</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="M22" s="7">
         <v>343</v>
@@ -4334,13 +4361,13 @@
         <v>364607</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4355,13 +4382,13 @@
         <v>827844</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
         <v>358</v>
@@ -4370,13 +4397,13 @@
         <v>391117</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
         <v>1124</v>
@@ -4385,18 +4412,18 @@
         <v>1218961</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -4415,7 +4442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE1D498-0809-4F94-823F-7320DDF7A766}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35946CD0-75B9-4626-B517-8E867FF56BC7}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4432,7 +4459,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4536,16 +4563,16 @@
         <v>67</v>
       </c>
       <c r="D4" s="7">
-        <v>62948</v>
+        <v>62949</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -4554,13 +4581,13 @@
         <v>3877</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="M4" s="7">
         <v>70</v>
@@ -4569,13 +4596,13 @@
         <v>66825</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4587,16 +4614,16 @@
         <v>82</v>
       </c>
       <c r="D5" s="7">
-        <v>74819</v>
+        <v>74820</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="H5" s="7">
         <v>12</v>
@@ -4605,13 +4632,13 @@
         <v>12522</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="M5" s="7">
         <v>94</v>
@@ -4620,13 +4647,13 @@
         <v>87342</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>222</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4641,13 +4668,13 @@
         <v>62165</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>312</v>
+        <v>248</v>
       </c>
       <c r="H6" s="7">
         <v>20</v>
@@ -4656,13 +4683,13 @@
         <v>20356</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>251</v>
+        <v>319</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="M6" s="7">
         <v>82</v>
@@ -4671,13 +4698,13 @@
         <v>82522</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4692,13 +4719,13 @@
         <v>36684</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -4707,13 +4734,13 @@
         <v>9844</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="M7" s="7">
         <v>45</v>
@@ -4722,13 +4749,13 @@
         <v>46528</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4740,16 +4767,16 @@
         <v>247</v>
       </c>
       <c r="D8" s="7">
-        <v>236617</v>
+        <v>236618</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>44</v>
@@ -4758,13 +4785,13 @@
         <v>46599</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>291</v>
@@ -4773,18 +4800,18 @@
         <v>283217</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -4796,13 +4823,13 @@
         <v>49180</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="H9" s="7">
         <v>11</v>
@@ -4811,13 +4838,13 @@
         <v>12761</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>94</v>
+        <v>338</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="M9" s="7">
         <v>59</v>
@@ -4826,13 +4853,13 @@
         <v>61941</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>66</v>
+        <v>342</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4847,13 +4874,13 @@
         <v>86580</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>159</v>
+        <v>345</v>
       </c>
       <c r="H10" s="7">
         <v>45</v>
@@ -4862,13 +4889,13 @@
         <v>48768</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="M10" s="7">
         <v>127</v>
@@ -4877,13 +4904,13 @@
         <v>135348</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4898,13 +4925,13 @@
         <v>116756</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="H11" s="7">
         <v>81</v>
@@ -4913,13 +4940,13 @@
         <v>86214</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="M11" s="7">
         <v>190</v>
@@ -4928,13 +4955,13 @@
         <v>202970</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4949,13 +4976,13 @@
         <v>101079</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>352</v>
+        <v>323</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="H12" s="7">
         <v>80</v>
@@ -4964,13 +4991,13 @@
         <v>81881</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="M12" s="7">
         <v>173</v>
@@ -4979,13 +5006,13 @@
         <v>182959</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5000,13 +5027,13 @@
         <v>353596</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>217</v>
@@ -5015,13 +5042,13 @@
         <v>229623</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>549</v>
@@ -5030,18 +5057,18 @@
         <v>583219</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -5053,13 +5080,13 @@
         <v>16432</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -5068,13 +5095,13 @@
         <v>6527</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>363</v>
+        <v>203</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="M14" s="7">
         <v>20</v>
@@ -5083,13 +5110,13 @@
         <v>22959</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5104,13 +5131,13 @@
         <v>23992</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>352</v>
+        <v>377</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="H15" s="7">
         <v>26</v>
@@ -5119,13 +5146,13 @@
         <v>30053</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="M15" s="7">
         <v>49</v>
@@ -5134,13 +5161,13 @@
         <v>54046</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5155,13 +5182,13 @@
         <v>36951</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="H16" s="7">
         <v>38</v>
@@ -5170,13 +5197,13 @@
         <v>39897</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>380</v>
+        <v>255</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="M16" s="7">
         <v>69</v>
@@ -5185,13 +5212,13 @@
         <v>76848</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>285</v>
+        <v>157</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5206,13 +5233,13 @@
         <v>23975</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
@@ -5221,13 +5248,13 @@
         <v>27885</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="M17" s="7">
         <v>50</v>
@@ -5236,13 +5263,13 @@
         <v>51860</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5257,13 +5284,13 @@
         <v>101350</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
         <v>98</v>
@@ -5272,13 +5299,13 @@
         <v>104362</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
         <v>188</v>
@@ -5287,13 +5314,13 @@
         <v>205712</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5310,13 +5337,13 @@
         <v>128561</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>395</v>
+        <v>273</v>
       </c>
       <c r="H19" s="7">
         <v>20</v>
@@ -5325,13 +5352,13 @@
         <v>23165</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="M19" s="7">
         <v>149</v>
@@ -5340,13 +5367,13 @@
         <v>151726</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5361,13 +5388,13 @@
         <v>185392</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="H20" s="7">
         <v>83</v>
@@ -5376,13 +5403,13 @@
         <v>91344</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>315</v>
+        <v>414</v>
       </c>
       <c r="M20" s="7">
         <v>270</v>
@@ -5391,13 +5418,13 @@
         <v>276736</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>408</v>
+        <v>249</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5412,13 +5439,13 @@
         <v>215872</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>410</v>
+        <v>157</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>137</v>
+        <v>417</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="H21" s="7">
         <v>139</v>
@@ -5427,13 +5454,13 @@
         <v>146467</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>413</v>
+        <v>177</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>279</v>
+        <v>420</v>
       </c>
       <c r="M21" s="7">
         <v>341</v>
@@ -5442,13 +5469,13 @@
         <v>362340</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>308</v>
+        <v>422</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5463,13 +5490,13 @@
         <v>161737</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="H22" s="7">
         <v>117</v>
@@ -5478,13 +5505,13 @@
         <v>119609</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>419</v>
+        <v>386</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="M22" s="7">
         <v>268</v>
@@ -5493,13 +5520,13 @@
         <v>281347</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>299</v>
+        <v>429</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>421</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5514,13 +5541,13 @@
         <v>691562</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
         <v>359</v>
@@ -5529,13 +5556,13 @@
         <v>380585</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
         <v>1028</v>
@@ -5544,18 +5571,18 @@
         <v>1072148</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -5574,7 +5601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DDBB5B6-EC66-45B7-A5B3-F4174100111C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B053F504-3B0E-4D58-BD82-3650B9F7637C}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5591,7 +5618,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5698,13 +5725,13 @@
         <v>59761</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
@@ -5713,13 +5740,13 @@
         <v>12988</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>426</v>
+        <v>139</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="M4" s="7">
         <v>108</v>
@@ -5728,13 +5755,13 @@
         <v>72749</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>353</v>
+        <v>436</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5749,13 +5776,13 @@
         <v>61603</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="H5" s="7">
         <v>23</v>
@@ -5764,13 +5791,13 @@
         <v>14199</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>434</v>
+        <v>38</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="M5" s="7">
         <v>103</v>
@@ -5779,13 +5806,13 @@
         <v>75802</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5800,13 +5827,13 @@
         <v>29001</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="H6" s="7">
         <v>15</v>
@@ -5815,13 +5842,13 @@
         <v>9928</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>326</v>
+        <v>49</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="M6" s="7">
         <v>53</v>
@@ -5830,13 +5857,13 @@
         <v>38929</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>162</v>
+        <v>453</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5851,13 +5878,13 @@
         <v>20437</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>447</v>
+        <v>407</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -5866,13 +5893,13 @@
         <v>9498</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="M7" s="7">
         <v>35</v>
@@ -5881,13 +5908,13 @@
         <v>29935</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5902,13 +5929,13 @@
         <v>170802</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>70</v>
@@ -5917,13 +5944,13 @@
         <v>46613</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>299</v>
@@ -5932,18 +5959,18 @@
         <v>217415</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -5955,13 +5982,13 @@
         <v>79685</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="H9" s="7">
         <v>61</v>
@@ -5970,13 +5997,13 @@
         <v>38559</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="M9" s="7">
         <v>161</v>
@@ -5985,13 +6012,13 @@
         <v>118244</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>117</v>
+        <v>266</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6006,13 +6033,13 @@
         <v>101491</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="H10" s="7">
         <v>83</v>
@@ -6021,13 +6048,13 @@
         <v>54979</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>362</v>
+        <v>474</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="M10" s="7">
         <v>197</v>
@@ -6036,13 +6063,13 @@
         <v>156470</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6057,13 +6084,13 @@
         <v>85546</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="H11" s="7">
         <v>78</v>
@@ -6072,13 +6099,13 @@
         <v>58572</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>474</v>
+        <v>348</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="M11" s="7">
         <v>168</v>
@@ -6087,13 +6114,13 @@
         <v>144118</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6108,13 +6135,13 @@
         <v>99818</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="H12" s="7">
         <v>84</v>
@@ -6123,13 +6150,13 @@
         <v>64932</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="M12" s="7">
         <v>136</v>
@@ -6138,13 +6165,13 @@
         <v>164749</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6159,13 +6186,13 @@
         <v>366539</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>306</v>
@@ -6174,13 +6201,13 @@
         <v>217042</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>662</v>
@@ -6189,18 +6216,18 @@
         <v>583581</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -6212,13 +6239,13 @@
         <v>45109</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="H14" s="7">
         <v>35</v>
@@ -6227,13 +6254,13 @@
         <v>20621</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>395</v>
+        <v>496</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>490</v>
+        <v>255</v>
       </c>
       <c r="M14" s="7">
         <v>95</v>
@@ -6242,13 +6269,13 @@
         <v>65730</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6263,13 +6290,13 @@
         <v>40595</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>48</v>
+        <v>502</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="H15" s="7">
         <v>43</v>
@@ -6278,13 +6305,13 @@
         <v>28833</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>497</v>
+        <v>276</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="M15" s="7">
         <v>90</v>
@@ -6293,13 +6320,13 @@
         <v>69428</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>499</v>
+        <v>162</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6314,13 +6341,13 @@
         <v>32545</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>385</v>
+        <v>508</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -6329,13 +6356,13 @@
         <v>23370</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="M16" s="7">
         <v>68</v>
@@ -6344,13 +6371,13 @@
         <v>55914</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>506</v>
+        <v>207</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6365,13 +6392,13 @@
         <v>25827</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>510</v>
+        <v>270</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
@@ -6380,13 +6407,13 @@
         <v>20989</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="M17" s="7">
         <v>49</v>
@@ -6395,13 +6422,13 @@
         <v>46816</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6416,13 +6443,13 @@
         <v>144075</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
         <v>139</v>
@@ -6431,13 +6458,13 @@
         <v>93813</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
         <v>302</v>
@@ -6446,13 +6473,13 @@
         <v>237888</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6469,13 +6496,13 @@
         <v>184554</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="H19" s="7">
         <v>117</v>
@@ -6484,13 +6511,13 @@
         <v>72168</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>403</v>
+        <v>528</v>
       </c>
       <c r="M19" s="7">
         <v>364</v>
@@ -6499,13 +6526,13 @@
         <v>256723</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6520,13 +6547,13 @@
         <v>203688</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>207</v>
+        <v>533</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="H20" s="7">
         <v>149</v>
@@ -6535,13 +6562,13 @@
         <v>98012</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="M20" s="7">
         <v>390</v>
@@ -6550,13 +6577,13 @@
         <v>301700</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>301</v>
+        <v>538</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6571,13 +6598,13 @@
         <v>147092</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="H21" s="7">
         <v>128</v>
@@ -6586,13 +6613,13 @@
         <v>91869</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="M21" s="7">
         <v>289</v>
@@ -6601,13 +6628,13 @@
         <v>238961</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>244</v>
+        <v>547</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6622,13 +6649,13 @@
         <v>146081</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="H22" s="7">
         <v>121</v>
@@ -6637,13 +6664,13 @@
         <v>95419</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="M22" s="7">
         <v>220</v>
@@ -6652,13 +6679,13 @@
         <v>241500</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6673,13 +6700,13 @@
         <v>681416</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
         <v>515</v>
@@ -6688,13 +6715,13 @@
         <v>357468</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
         <v>1263</v>
@@ -6703,18 +6730,18 @@
         <v>1038883</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q25_A_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q25_A_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{121B723D-769F-410E-B383-2EF46D9052F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47F86929-EE92-4829-A68D-8D9AE0863454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AE1A0505-B979-4F8B-9126-CD2DEF6CA693}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{7BE8C8A9-1E68-4FF3-B62C-9AEC8BB2926D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="549">
   <si>
     <t>Población en función del tiempo en años desde que dejó de fumar en 2007 (Tasa respuesta: 13,07%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>14,95%</t>
   </si>
   <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
   </si>
   <si>
     <t>6,44%</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
   </si>
   <si>
     <t>13,71%</t>
   </si>
   <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
   </si>
   <si>
     <t>Cuartil III</t>
@@ -107,28 +107,28 @@
     <t>34,82%</t>
   </si>
   <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
     <t>29,16%</t>
   </si>
   <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
+    <t>38,84%</t>
   </si>
   <si>
     <t>Cuartil II</t>
@@ -137,1458 +137,1443 @@
     <t>34,94%</t>
   </si>
   <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
   </si>
   <si>
     <t>38,03%</t>
   </si>
   <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
   </si>
   <si>
     <t>35,39%</t>
   </si>
   <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>Cuartil I</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población en función del tiempo en años desde que dejó de fumar en 2012 (Tasa respuesta: 17,27%)</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>Población en función del tiempo en años desde que dejó de fumar en 2016 (Tasa respuesta: 15,74%)</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>Población en función del tiempo en años desde que dejó de fumar en 2023 (Tasa respuesta: 14,51%)</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
     <t>30,46%</t>
   </si>
   <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>Cuartil I</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población en función del tiempo en años desde que dejó de fumar en 2012 (Tasa respuesta: 17,27%)</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
   </si>
   <si>
     <t>29,19%</t>
   </si>
   <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
   </si>
   <si>
     <t>23,5%</t>
   </si>
   <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
   </si>
   <si>
     <t>11,76%</t>
   </si>
   <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>Población en función del tiempo en años desde que dejó de fumar en 2016 (Tasa respuesta: 15,74%)</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>Población en función del tiempo en años desde que dejó de fumar en 2023 (Tasa respuesta: 14,51%)</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
     <t>26,0%</t>
   </si>
   <si>
@@ -1625,9 +1610,6 @@
     <t>16,67%</t>
   </si>
   <si>
-    <t>23,73%</t>
-  </si>
-  <si>
     <t>24,71%</t>
   </si>
   <si>
@@ -1640,9 +1622,6 @@
     <t>29,89%</t>
   </si>
   <si>
-    <t>22,57%</t>
-  </si>
-  <si>
     <t>33,95%</t>
   </si>
   <si>
@@ -1655,9 +1634,6 @@
     <t>31,57%</t>
   </si>
   <si>
-    <t>29,04%</t>
-  </si>
-  <si>
     <t>24,12%</t>
   </si>
   <si>
@@ -1680,9 +1656,6 @@
   </si>
   <si>
     <t>30,14%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
   </si>
   <si>
     <t>19,49%</t>
@@ -2124,7 +2097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F39C1736-0FC0-4215-96B5-6583C7AEA7CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACE283A-3421-4D52-8800-5D4B63BD657E}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2404,10 +2377,10 @@
         <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -2416,13 +2389,13 @@
         <v>13780</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>58</v>
@@ -2431,13 +2404,13 @@
         <v>59125</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2452,13 +2425,13 @@
         <v>296628</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>49</v>
@@ -2467,13 +2440,13 @@
         <v>50558</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>353</v>
@@ -2482,18 +2455,18 @@
         <v>347186</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -2505,13 +2478,13 @@
         <v>15222</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -2520,13 +2493,13 @@
         <v>3054</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>17</v>
@@ -2535,13 +2508,13 @@
         <v>18276</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2556,13 +2529,13 @@
         <v>47011</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -2571,13 +2544,13 @@
         <v>17710</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>62</v>
@@ -2586,13 +2559,13 @@
         <v>64721</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2607,13 +2580,13 @@
         <v>97139</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H11" s="7">
         <v>60</v>
@@ -2622,13 +2595,13 @@
         <v>63269</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M11" s="7">
         <v>157</v>
@@ -2637,13 +2610,13 @@
         <v>160408</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2658,13 +2631,13 @@
         <v>73966</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>64</v>
@@ -2673,13 +2646,13 @@
         <v>63991</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M12" s="7">
         <v>136</v>
@@ -2688,13 +2661,13 @@
         <v>137957</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2709,13 +2682,13 @@
         <v>233338</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>144</v>
@@ -2724,13 +2697,13 @@
         <v>148024</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>372</v>
@@ -2739,18 +2712,18 @@
         <v>381362</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2762,13 +2735,13 @@
         <v>6558</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -2777,13 +2750,13 @@
         <v>2095</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -2792,13 +2765,13 @@
         <v>8653</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2813,13 +2786,13 @@
         <v>22620</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H15" s="7">
         <v>8</v>
@@ -2828,13 +2801,13 @@
         <v>8057</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M15" s="7">
         <v>28</v>
@@ -2843,13 +2816,13 @@
         <v>30677</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2864,13 +2837,13 @@
         <v>27509</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -2879,13 +2852,13 @@
         <v>23422</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>50</v>
@@ -2894,13 +2867,13 @@
         <v>50931</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2915,13 +2888,13 @@
         <v>26290</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -2930,13 +2903,13 @@
         <v>16320</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>118</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="M17" s="7">
         <v>41</v>
@@ -2945,13 +2918,13 @@
         <v>42611</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2966,13 +2939,13 @@
         <v>82978</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7">
         <v>48</v>
@@ -2981,13 +2954,13 @@
         <v>49893</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M18" s="7">
         <v>126</v>
@@ -2996,13 +2969,13 @@
         <v>132872</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3019,13 +2992,13 @@
         <v>66129</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -3034,13 +3007,13 @@
         <v>8405</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>128</v>
+        <v>51</v>
       </c>
       <c r="M19" s="7">
         <v>73</v>
@@ -3049,13 +3022,13 @@
         <v>74535</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3070,13 +3043,13 @@
         <v>172920</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H20" s="7">
         <v>38</v>
@@ -3085,13 +3058,13 @@
         <v>40061</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="M20" s="7">
         <v>210</v>
@@ -3100,13 +3073,13 @@
         <v>212981</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3121,13 +3094,13 @@
         <v>228293</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H21" s="7">
         <v>101</v>
@@ -3136,13 +3109,13 @@
         <v>105918</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M21" s="7">
         <v>333</v>
@@ -3151,13 +3124,13 @@
         <v>334211</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>147</v>
+        <v>72</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3172,13 +3145,13 @@
         <v>145602</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H22" s="7">
         <v>94</v>
@@ -3187,13 +3160,13 @@
         <v>94091</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M22" s="7">
         <v>235</v>
@@ -3202,13 +3175,13 @@
         <v>239692</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3223,13 +3196,13 @@
         <v>612944</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
         <v>241</v>
@@ -3238,13 +3211,13 @@
         <v>248475</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
         <v>851</v>
@@ -3253,18 +3226,18 @@
         <v>861419</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3283,7 +3256,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A117AD7-ADE0-46B6-8C9E-41E12D2961A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C684E2-2BA9-4AA1-9B3B-84D244EC6957}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3300,7 +3273,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3407,13 +3380,13 @@
         <v>94169</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -3422,13 +3395,13 @@
         <v>4213</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M4" s="7">
         <v>85</v>
@@ -3437,13 +3410,13 @@
         <v>98382</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3458,13 +3431,13 @@
         <v>120079</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H5" s="7">
         <v>12</v>
@@ -3473,13 +3446,13 @@
         <v>12200</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="M5" s="7">
         <v>123</v>
@@ -3488,13 +3461,13 @@
         <v>132279</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3509,13 +3482,13 @@
         <v>107899</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="H6" s="7">
         <v>24</v>
@@ -3524,13 +3497,13 @@
         <v>25626</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="M6" s="7">
         <v>127</v>
@@ -3539,13 +3512,13 @@
         <v>133525</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3560,13 +3533,13 @@
         <v>62234</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="H7" s="7">
         <v>26</v>
@@ -3575,13 +3548,13 @@
         <v>28030</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="M7" s="7">
         <v>86</v>
@@ -3590,13 +3563,13 @@
         <v>90264</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3611,13 +3584,13 @@
         <v>384381</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>66</v>
@@ -3626,13 +3599,13 @@
         <v>70069</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>421</v>
@@ -3641,18 +3614,18 @@
         <v>454450</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -3664,13 +3637,13 @@
         <v>35459</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="H9" s="7">
         <v>14</v>
@@ -3679,13 +3652,13 @@
         <v>15241</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="M9" s="7">
         <v>45</v>
@@ -3694,13 +3667,13 @@
         <v>50701</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3715,13 +3688,13 @@
         <v>64980</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="H10" s="7">
         <v>39</v>
@@ -3730,13 +3703,13 @@
         <v>45143</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="M10" s="7">
         <v>97</v>
@@ -3745,13 +3718,13 @@
         <v>110123</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3766,13 +3739,13 @@
         <v>118882</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="H11" s="7">
         <v>90</v>
@@ -3781,13 +3754,13 @@
         <v>95650</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="M11" s="7">
         <v>202</v>
@@ -3796,13 +3769,13 @@
         <v>214532</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>104</v>
+        <v>215</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>221</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3817,13 +3790,13 @@
         <v>128914</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="H12" s="7">
         <v>80</v>
@@ -3832,13 +3805,13 @@
         <v>87127</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="M12" s="7">
         <v>203</v>
@@ -3847,13 +3820,13 @@
         <v>216041</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3868,13 +3841,13 @@
         <v>348236</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>223</v>
@@ -3883,13 +3856,13 @@
         <v>243161</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>547</v>
@@ -3898,18 +3871,18 @@
         <v>591398</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -3921,13 +3894,13 @@
         <v>14820</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -3936,13 +3909,13 @@
         <v>3170</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="M14" s="7">
         <v>16</v>
@@ -3951,13 +3924,13 @@
         <v>17990</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3972,13 +3945,13 @@
         <v>19204</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="H15" s="7">
         <v>12</v>
@@ -3987,13 +3960,13 @@
         <v>15492</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="M15" s="7">
         <v>29</v>
@@ -4002,13 +3975,13 @@
         <v>34697</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4023,13 +3996,13 @@
         <v>30148</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -4038,13 +4011,13 @@
         <v>31977</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="M16" s="7">
         <v>57</v>
@@ -4053,13 +4026,13 @@
         <v>62125</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4074,13 +4047,13 @@
         <v>31055</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
@@ -4089,13 +4062,13 @@
         <v>27246</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>73</v>
+        <v>255</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>133</v>
+        <v>256</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="M17" s="7">
         <v>54</v>
@@ -4104,13 +4077,13 @@
         <v>58302</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4125,13 +4098,13 @@
         <v>95227</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7">
         <v>69</v>
@@ -4140,13 +4113,13 @@
         <v>77886</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M18" s="7">
         <v>156</v>
@@ -4155,13 +4128,13 @@
         <v>173113</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4178,13 +4151,13 @@
         <v>144448</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H19" s="7">
         <v>21</v>
@@ -4193,13 +4166,13 @@
         <v>22625</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>269</v>
+        <v>122</v>
       </c>
       <c r="M19" s="7">
         <v>146</v>
@@ -4211,10 +4184,10 @@
         <v>17</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4229,13 +4202,13 @@
         <v>204263</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>273</v>
+        <v>163</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="H20" s="7">
         <v>63</v>
@@ -4244,13 +4217,13 @@
         <v>72836</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="M20" s="7">
         <v>249</v>
@@ -4259,13 +4232,13 @@
         <v>277099</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4280,13 +4253,13 @@
         <v>256929</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="H21" s="7">
         <v>142</v>
@@ -4295,13 +4268,13 @@
         <v>153253</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>284</v>
+        <v>21</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="M21" s="7">
         <v>386</v>
@@ -4310,13 +4283,13 @@
         <v>410182</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4331,13 +4304,13 @@
         <v>222203</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="H22" s="7">
         <v>132</v>
@@ -4346,13 +4319,13 @@
         <v>142404</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="M22" s="7">
         <v>343</v>
@@ -4361,13 +4334,13 @@
         <v>364607</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4382,13 +4355,13 @@
         <v>827844</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
         <v>358</v>
@@ -4397,13 +4370,13 @@
         <v>391117</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
         <v>1124</v>
@@ -4412,18 +4385,18 @@
         <v>1218961</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -4442,7 +4415,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35946CD0-75B9-4626-B517-8E867FF56BC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709EB65A-7CB4-483B-A3D6-42A2CA255598}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4459,7 +4432,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4563,16 +4536,16 @@
         <v>67</v>
       </c>
       <c r="D4" s="7">
-        <v>62949</v>
+        <v>62948</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -4581,13 +4554,13 @@
         <v>3877</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="M4" s="7">
         <v>70</v>
@@ -4596,13 +4569,13 @@
         <v>66825</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4614,16 +4587,16 @@
         <v>82</v>
       </c>
       <c r="D5" s="7">
-        <v>74820</v>
+        <v>74819</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="H5" s="7">
         <v>12</v>
@@ -4632,13 +4605,13 @@
         <v>12522</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="M5" s="7">
         <v>94</v>
@@ -4647,13 +4620,13 @@
         <v>87342</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>316</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4668,13 +4641,13 @@
         <v>62165</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>248</v>
+        <v>312</v>
       </c>
       <c r="H6" s="7">
         <v>20</v>
@@ -4683,13 +4656,13 @@
         <v>20356</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>319</v>
+        <v>251</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="M6" s="7">
         <v>82</v>
@@ -4698,13 +4671,13 @@
         <v>82522</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4719,13 +4692,13 @@
         <v>36684</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -4734,13 +4707,13 @@
         <v>9844</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="M7" s="7">
         <v>45</v>
@@ -4749,13 +4722,13 @@
         <v>46528</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4767,16 +4740,16 @@
         <v>247</v>
       </c>
       <c r="D8" s="7">
-        <v>236618</v>
+        <v>236617</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>44</v>
@@ -4785,13 +4758,13 @@
         <v>46599</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>291</v>
@@ -4800,18 +4773,18 @@
         <v>283217</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -4823,13 +4796,13 @@
         <v>49180</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="H9" s="7">
         <v>11</v>
@@ -4838,13 +4811,13 @@
         <v>12761</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>338</v>
+        <v>94</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="M9" s="7">
         <v>59</v>
@@ -4853,13 +4826,13 @@
         <v>61941</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>342</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4874,13 +4847,13 @@
         <v>86580</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>345</v>
+        <v>159</v>
       </c>
       <c r="H10" s="7">
         <v>45</v>
@@ -4889,13 +4862,13 @@
         <v>48768</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="M10" s="7">
         <v>127</v>
@@ -4904,13 +4877,13 @@
         <v>135348</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4925,13 +4898,13 @@
         <v>116756</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="H11" s="7">
         <v>81</v>
@@ -4940,13 +4913,13 @@
         <v>86214</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="M11" s="7">
         <v>190</v>
@@ -4955,13 +4928,13 @@
         <v>202970</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4976,13 +4949,13 @@
         <v>101079</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="H12" s="7">
         <v>80</v>
@@ -4991,13 +4964,13 @@
         <v>81881</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="M12" s="7">
         <v>173</v>
@@ -5006,13 +4979,13 @@
         <v>182959</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5027,13 +5000,13 @@
         <v>353596</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>217</v>
@@ -5042,13 +5015,13 @@
         <v>229623</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>549</v>
@@ -5057,18 +5030,18 @@
         <v>583219</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -5080,13 +5053,13 @@
         <v>16432</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -5095,13 +5068,13 @@
         <v>6527</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>203</v>
+        <v>363</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="M14" s="7">
         <v>20</v>
@@ -5110,13 +5083,13 @@
         <v>22959</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5131,13 +5104,13 @@
         <v>23992</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="H15" s="7">
         <v>26</v>
@@ -5146,13 +5119,13 @@
         <v>30053</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="M15" s="7">
         <v>49</v>
@@ -5161,13 +5134,13 @@
         <v>54046</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5182,13 +5155,13 @@
         <v>36951</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="H16" s="7">
         <v>38</v>
@@ -5197,13 +5170,13 @@
         <v>39897</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>255</v>
+        <v>380</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="M16" s="7">
         <v>69</v>
@@ -5212,13 +5185,13 @@
         <v>76848</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>157</v>
+        <v>285</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5233,13 +5206,13 @@
         <v>23975</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
@@ -5248,13 +5221,13 @@
         <v>27885</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="M17" s="7">
         <v>50</v>
@@ -5263,13 +5236,13 @@
         <v>51860</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5284,13 +5257,13 @@
         <v>101350</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7">
         <v>98</v>
@@ -5299,13 +5272,13 @@
         <v>104362</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M18" s="7">
         <v>188</v>
@@ -5314,13 +5287,13 @@
         <v>205712</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5337,13 +5310,13 @@
         <v>128561</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>273</v>
+        <v>395</v>
       </c>
       <c r="H19" s="7">
         <v>20</v>
@@ -5352,13 +5325,13 @@
         <v>23165</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="M19" s="7">
         <v>149</v>
@@ -5367,13 +5340,13 @@
         <v>151726</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5388,13 +5361,13 @@
         <v>185392</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="H20" s="7">
         <v>83</v>
@@ -5403,13 +5376,13 @@
         <v>91344</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>414</v>
+        <v>315</v>
       </c>
       <c r="M20" s="7">
         <v>270</v>
@@ -5418,13 +5391,13 @@
         <v>276736</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>249</v>
+        <v>408</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5439,13 +5412,13 @@
         <v>215872</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>157</v>
+        <v>410</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>417</v>
+        <v>137</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="H21" s="7">
         <v>139</v>
@@ -5454,13 +5427,13 @@
         <v>146467</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>177</v>
+        <v>413</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>420</v>
+        <v>279</v>
       </c>
       <c r="M21" s="7">
         <v>341</v>
@@ -5469,13 +5442,13 @@
         <v>362340</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>422</v>
+        <v>308</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5490,13 +5463,13 @@
         <v>161737</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="H22" s="7">
         <v>117</v>
@@ -5505,13 +5478,13 @@
         <v>119609</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>386</v>
+        <v>419</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="M22" s="7">
         <v>268</v>
@@ -5520,13 +5493,13 @@
         <v>281347</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>429</v>
+        <v>299</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>255</v>
+        <v>421</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5541,13 +5514,13 @@
         <v>691562</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
         <v>359</v>
@@ -5556,13 +5529,13 @@
         <v>380585</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
         <v>1028</v>
@@ -5571,18 +5544,18 @@
         <v>1072148</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -5601,7 +5574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B053F504-3B0E-4D58-BD82-3650B9F7637C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFC58F76-EF91-4F8D-B8D2-1EEA50B31785}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5618,7 +5591,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5725,13 +5698,13 @@
         <v>59761</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
@@ -5740,13 +5713,13 @@
         <v>12988</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>139</v>
+        <v>426</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="M4" s="7">
         <v>108</v>
@@ -5755,13 +5728,13 @@
         <v>72749</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>436</v>
+        <v>353</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5776,13 +5749,13 @@
         <v>61603</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="H5" s="7">
         <v>23</v>
@@ -5791,13 +5764,13 @@
         <v>14199</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>38</v>
+        <v>434</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="M5" s="7">
         <v>103</v>
@@ -5806,13 +5779,13 @@
         <v>75802</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5827,13 +5800,13 @@
         <v>29001</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="H6" s="7">
         <v>15</v>
@@ -5842,13 +5815,13 @@
         <v>9928</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>49</v>
+        <v>326</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="M6" s="7">
         <v>53</v>
@@ -5857,13 +5830,13 @@
         <v>38929</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>453</v>
+        <v>162</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5878,13 +5851,13 @@
         <v>20437</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>407</v>
+        <v>447</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -5893,13 +5866,13 @@
         <v>9498</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="M7" s="7">
         <v>35</v>
@@ -5908,13 +5881,13 @@
         <v>29935</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5929,13 +5902,13 @@
         <v>170802</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>70</v>
@@ -5944,13 +5917,13 @@
         <v>46613</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>299</v>
@@ -5959,18 +5932,18 @@
         <v>217415</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -5982,13 +5955,13 @@
         <v>79685</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="H9" s="7">
         <v>61</v>
@@ -5997,13 +5970,13 @@
         <v>38559</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="M9" s="7">
         <v>161</v>
@@ -6012,13 +5985,13 @@
         <v>118244</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>266</v>
+        <v>117</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6033,13 +6006,13 @@
         <v>101491</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="H10" s="7">
         <v>83</v>
@@ -6048,13 +6021,13 @@
         <v>54979</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>474</v>
+        <v>362</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="M10" s="7">
         <v>197</v>
@@ -6063,13 +6036,13 @@
         <v>156470</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6084,13 +6057,13 @@
         <v>85546</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="H11" s="7">
         <v>78</v>
@@ -6099,13 +6072,13 @@
         <v>58572</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>348</v>
+        <v>474</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="M11" s="7">
         <v>168</v>
@@ -6114,13 +6087,13 @@
         <v>144118</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6135,13 +6108,13 @@
         <v>99818</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="H12" s="7">
         <v>84</v>
@@ -6150,13 +6123,13 @@
         <v>64932</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="M12" s="7">
         <v>136</v>
@@ -6165,13 +6138,13 @@
         <v>164749</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6186,13 +6159,13 @@
         <v>366539</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>306</v>
@@ -6201,13 +6174,13 @@
         <v>217042</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>662</v>
@@ -6216,18 +6189,18 @@
         <v>583581</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -6239,13 +6212,13 @@
         <v>45109</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="H14" s="7">
         <v>35</v>
@@ -6254,13 +6227,13 @@
         <v>20621</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>496</v>
+        <v>395</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>255</v>
+        <v>490</v>
       </c>
       <c r="M14" s="7">
         <v>95</v>
@@ -6269,13 +6242,13 @@
         <v>65730</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6290,13 +6263,13 @@
         <v>40595</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>502</v>
+        <v>48</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="H15" s="7">
         <v>43</v>
@@ -6305,13 +6278,13 @@
         <v>28833</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>276</v>
+        <v>497</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="M15" s="7">
         <v>90</v>
@@ -6320,13 +6293,13 @@
         <v>69428</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>162</v>
+        <v>499</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6341,13 +6314,13 @@
         <v>32545</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>508</v>
+        <v>385</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -6356,13 +6329,13 @@
         <v>23370</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="M16" s="7">
         <v>68</v>
@@ -6371,13 +6344,13 @@
         <v>55914</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>207</v>
+        <v>506</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6392,13 +6365,13 @@
         <v>25827</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>270</v>
+        <v>510</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
@@ -6407,13 +6380,13 @@
         <v>20989</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="M17" s="7">
         <v>49</v>
@@ -6422,13 +6395,13 @@
         <v>46816</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6443,13 +6416,13 @@
         <v>144075</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7">
         <v>139</v>
@@ -6458,13 +6431,13 @@
         <v>93813</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M18" s="7">
         <v>302</v>
@@ -6473,13 +6446,13 @@
         <v>237888</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6496,13 +6469,13 @@
         <v>184554</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="H19" s="7">
         <v>117</v>
@@ -6511,13 +6484,13 @@
         <v>72168</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>528</v>
+        <v>403</v>
       </c>
       <c r="M19" s="7">
         <v>364</v>
@@ -6526,13 +6499,13 @@
         <v>256723</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6547,13 +6520,13 @@
         <v>203688</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>533</v>
+        <v>207</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="H20" s="7">
         <v>149</v>
@@ -6562,13 +6535,13 @@
         <v>98012</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="M20" s="7">
         <v>390</v>
@@ -6577,13 +6550,13 @@
         <v>301700</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>538</v>
+        <v>301</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6598,13 +6571,13 @@
         <v>147092</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="H21" s="7">
         <v>128</v>
@@ -6613,13 +6586,13 @@
         <v>91869</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="M21" s="7">
         <v>289</v>
@@ -6628,13 +6601,13 @@
         <v>238961</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>547</v>
+        <v>244</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6649,13 +6622,13 @@
         <v>146081</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="H22" s="7">
         <v>121</v>
@@ -6664,13 +6637,13 @@
         <v>95419</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="M22" s="7">
         <v>220</v>
@@ -6679,13 +6652,13 @@
         <v>241500</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6700,13 +6673,13 @@
         <v>681416</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
         <v>515</v>
@@ -6715,13 +6688,13 @@
         <v>357468</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
         <v>1263</v>
@@ -6730,18 +6703,18 @@
         <v>1038883</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q25_A_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q25_A_R-Estudios-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población en función del tiempo en años desde que dejó de fumar</t>
+          <t>Tiempo medio en años desde que dejó de fumar</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,23; 14,46</t>
+          <t>12,34; 14,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,27; 17,21</t>
+          <t>14,37; 17,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,61; 17,72</t>
+          <t>14,72; 17,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,17; 20,48</t>
+          <t>17,35; 20,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,01; 13,02</t>
+          <t>7,86; 12,95</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,68; 9,67</t>
+          <t>5,82; 9,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,53; 17,92</t>
+          <t>7,71; 17,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>13,16; 19,77</t>
+          <t>13,0; 19,93</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,93; 13,84</t>
+          <t>11,84; 13,79</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>13,29; 15,71</t>
+          <t>13,23; 15,55</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>13,85; 16,79</t>
+          <t>13,79; 16,92</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>16,9; 19,89</t>
+          <t>16,81; 19,81</t>
         </is>
       </c>
     </row>
@@ -864,47 +864,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,16; 9,05</t>
+          <t>7,1; 8,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,64; 9,54</t>
+          <t>7,66; 9,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,7; 11,72</t>
+          <t>9,66; 11,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,16; 15,55</t>
+          <t>4,41; 15,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,83; 6,69</t>
+          <t>4,91; 6,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,87; 8,83</t>
+          <t>6,82; 8,95</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,92; 8,97</t>
+          <t>6,95; 9,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,04; 12,42</t>
+          <t>10,11; 12,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,47; 7,81</t>
+          <t>6,51; 7,88</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -914,12 +914,12 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>8,79; 10,36</t>
+          <t>8,86; 10,4</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,13; 13,85</t>
+          <t>5,33; 13,88</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,74; 12,35</t>
+          <t>7,98; 12,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,4; 13,01</t>
+          <t>8,39; 13,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,88; 13,95</t>
+          <t>9,92; 13,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,8; 17,82</t>
+          <t>13,96; 17,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,02; 8,45</t>
+          <t>5,2; 8,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,9; 9,28</t>
+          <t>6,03; 9,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,6; 12,2</t>
+          <t>8,48; 12,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,91; 16,02</t>
+          <t>11,97; 16,02</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,14; 10,4</t>
+          <t>7,18; 10,35</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,64; 10,8</t>
+          <t>7,8; 10,84</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>9,6; 12,43</t>
+          <t>9,66; 12,45</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>13,75; 16,66</t>
+          <t>13,69; 16,63</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,16; 11,58</t>
+          <t>10,08; 11,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,25; 12,95</t>
+          <t>11,28; 12,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,9; 13,52</t>
+          <t>11,87; 13,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,47; 16,65</t>
+          <t>6,94; 16,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,98; 7,72</t>
+          <t>5,94; 7,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,84; 8,46</t>
+          <t>6,87; 8,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,97; 10,07</t>
+          <t>7,94; 9,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,67; 13,62</t>
+          <t>11,7; 13,65</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>9,11; 10,29</t>
+          <t>9,07; 10,24</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,03; 11,31</t>
+          <t>10,08; 11,29</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,68; 11,97</t>
+          <t>10,66; 11,97</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,44; 15,23</t>
+          <t>7,19; 15,26</t>
         </is>
       </c>
     </row>
